--- a/windsock.xlsx
+++ b/windsock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micah\Documents\josh_green\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micah\Documents\jg_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D41692-6605-49B9-86B6-F69692603012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE40860B-6C19-4AEF-ADA2-7874FE42F6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{0B4A5695-E9E7-49EF-B801-D7D12E784D73}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -158,37 +158,103 @@
     <t>https://www.staradvertiser.com/2020/05/28/hawaii-news/lt-gov-green-says-hawaii-slow-to-reopen-parts-of-economy/</t>
   </si>
   <si>
-    <t>https://www.staradvertiser.com/2020/06/19/breaking-news/hawaii-sees-27-new-coronavirus-cases-raising-statewide-total-to-789/</t>
-  </si>
-  <si>
-    <t>"“But things will settle down...This surge makes it more clear than ever that when we open tourism from the mainland to Hawaii, we’re going to have to require a pretest before their travel. This is what’s happening all across the world and it will decrease our number of cases very significantly.”</t>
-  </si>
-  <si>
-    <t>Predicts cases will improve</t>
-  </si>
-  <si>
     <t>"My advice will have to be to the Governor to do the full shutdown and go back to a four week period of stay at home, if that’s the number. The reason for that is that it worked.”</t>
   </si>
   <si>
     <t>https://www.staradvertiser.com/2020/08/12/breaking-news/watch-live-lt-gov-josh-green-joins-honolulu-star-advertisers-spotlight-hawaii-2/</t>
   </si>
   <si>
-    <t>Lt. Gov. Josh Green said the number of cases should begin falling as the closures and quarantine take effect.</t>
-  </si>
-  <si>
-    <t>https://www.staradvertiser.com/2020/08/09/hawaii-news/cases-hit-record-231-as-partial-lockdown-begins/</t>
-  </si>
-  <si>
-    <t>Getting better</t>
-  </si>
-  <si>
-    <t>Doing Well</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xYcqVNEIcm4</t>
   </si>
   <si>
-    <t>Lt Gov. Josh Green fundraising at $1000-$6000 maskless at height of Delta surge.</t>
+    <t>Fundraiser 12/12/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 12/08/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 12/07/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 11/23/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 11/19/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 11/16/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 11/10/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 11/04/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 09/09/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 06/24/21</t>
+  </si>
+  <si>
+    <t>Fundraiser 05/20/21</t>
+  </si>
+  <si>
+    <t>12/12/21</t>
+  </si>
+  <si>
+    <t>12/08/21</t>
+  </si>
+  <si>
+    <t>12/07/21</t>
+  </si>
+  <si>
+    <t>11/23/21</t>
+  </si>
+  <si>
+    <t>11/19/21</t>
+  </si>
+  <si>
+    <t>11/16/21</t>
+  </si>
+  <si>
+    <t>11/10/21</t>
+  </si>
+  <si>
+    <t>11/04/21</t>
+  </si>
+  <si>
+    <t>09/09/21</t>
+  </si>
+  <si>
+    <t>06/24/21</t>
+  </si>
+  <si>
+    <t>05/20/21</t>
+  </si>
+  <si>
+    <t>Fundraiser</t>
+  </si>
+  <si>
+    <t>$6000 a head fundraiser</t>
+  </si>
+  <si>
+    <t>$1000 a head fundraiser</t>
+  </si>
+  <si>
+    <t>MAINLAND fundraiser for $6000 a head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINLAND fundraiser for $1000 a head </t>
+  </si>
+  <si>
+    <t>$6000 a head phone call</t>
+  </si>
+  <si>
+    <t>$2000 a head fundraiser</t>
+  </si>
+  <si>
+    <t>Lt Gov. Josh Green fundraising at $1000-$6000 a head maskless at height of Delta surge.</t>
   </si>
 </sst>
 </file>
@@ -561,16 +627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F14A62-8E46-44FE-B67B-9E6B4BD81736}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="76.7109375" customWidth="1"/>
   </cols>
@@ -589,210 +655,228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43979</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43996</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44001</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44043</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44052</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44055</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44084</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44285</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44327</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44368</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -809,113 +893,238 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44432</v>
+        <v>44327</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44448</v>
+        <v>44285</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44474</v>
+        <v>44228</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44531</v>
+        <v>44204</v>
       </c>
       <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D61" xr:uid="{B2F14A62-8E46-44FE-B67B-9E6B4BD81736}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
-      <sortCondition ref="A1:A61"/>
+  <autoFilter ref="A1:D29" xr:uid="{B2F14A62-8E46-44FE-B67B-9E6B4BD81736}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition descending="1" ref="A1:A29"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{C3164085-1734-42CA-9E65-81933BC8E40D}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{C3164085-1734-42CA-9E65-81933BC8E40D}"/>
     <hyperlink ref="D18" r:id="rId2" xr:uid="{64134D25-0004-400F-B6A1-A78713C44512}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{E5F90553-93B2-4F8B-A218-2ED80C958E92}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{99036CCD-F4A9-4CAA-ADAC-4D8A06652D5E}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{B9870DD3-74A1-4356-921D-A56A70CA7D95}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{9DACD5F7-4BBC-4A90-A407-8B6AF2C2BF08}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{90621017-6348-475F-A061-E9E738F15D95}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{6F07A2A9-B1FC-43BB-A4F3-E3EC08906CD0}"/>
-    <hyperlink ref="D8" r:id="rId9" xr:uid="{C6AEF897-B555-4010-8FD8-9B1377D0888D}"/>
-    <hyperlink ref="D20" r:id="rId10" xr:uid="{2F5C87D5-1906-4BD0-B0BD-2B81E20B06B5}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{D003E993-72E6-4781-BC0F-67A3031D3F9A}"/>
-    <hyperlink ref="D3" r:id="rId12" xr:uid="{8F6BFD24-7F74-47AB-A1F5-3FE864EC4911}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{F2A36250-46E1-44BD-8197-11C8F97AA202}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{B676E83D-1164-48C3-A57F-0B57502355FC}"/>
-    <hyperlink ref="D23" r:id="rId15" xr:uid="{4DC57F60-535B-487F-8463-5213750C0B06}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{0AB6E191-A8AA-484E-B159-3A99CAAE6309}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{A5B56437-0847-4AAF-A598-54CC46370186}"/>
-    <hyperlink ref="D2" r:id="rId18" xr:uid="{2D8E8B87-8D08-4418-AF67-D79B613CC973}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{B031F876-2E12-4BFE-9A1B-E905FC1DC86E}"/>
-    <hyperlink ref="D6" r:id="rId20" xr:uid="{0141B740-74FB-4EA7-8AD8-BFECE054DEC1}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{E5F90553-93B2-4F8B-A218-2ED80C958E92}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{99036CCD-F4A9-4CAA-ADAC-4D8A06652D5E}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{B9870DD3-74A1-4356-921D-A56A70CA7D95}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{9DACD5F7-4BBC-4A90-A407-8B6AF2C2BF08}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{90621017-6348-475F-A061-E9E738F15D95}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{6F07A2A9-B1FC-43BB-A4F3-E3EC08906CD0}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{C6AEF897-B555-4010-8FD8-9B1377D0888D}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{2F5C87D5-1906-4BD0-B0BD-2B81E20B06B5}"/>
+    <hyperlink ref="D29" r:id="rId11" xr:uid="{8F6BFD24-7F74-47AB-A1F5-3FE864EC4911}"/>
+    <hyperlink ref="D25" r:id="rId12" xr:uid="{F2A36250-46E1-44BD-8197-11C8F97AA202}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{B676E83D-1164-48C3-A57F-0B57502355FC}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{4DC57F60-535B-487F-8463-5213750C0B06}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{0AB6E191-A8AA-484E-B159-3A99CAAE6309}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{A5B56437-0847-4AAF-A598-54CC46370186}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{2D8E8B87-8D08-4418-AF67-D79B613CC973}"/>
+    <hyperlink ref="D2" r:id="rId18" display="https://ags.hawaii.gov/campaign/files/2021/12/FundraiserGreenJ121221.pdf" xr:uid="{6E019403-7EEF-4D43-A25C-5E5A1E3674E9}"/>
+    <hyperlink ref="D3" r:id="rId19" display="https://ags.hawaii.gov/campaign/files/2021/12/FundraiserGreenJ120821.pdf" xr:uid="{C95B1AB5-F4E9-4778-825D-57AC16B25310}"/>
+    <hyperlink ref="D4" r:id="rId20" display="https://ags.hawaii.gov/campaign/files/2021/12/FundraiserGreenJ120721.pdf" xr:uid="{73CF4B0A-DD97-4F78-B3F4-F4C81C696FCD}"/>
+    <hyperlink ref="D5" r:id="rId21" display="https://ags.hawaii.gov/campaign/files/2021/11/FundraiserGreenJ112321.pdf" xr:uid="{15FDE2C5-2D64-46EE-B758-2A9420CD2C28}"/>
+    <hyperlink ref="D6" r:id="rId22" display="https://ags.hawaii.gov/campaign/files/2021/11/FundraiserGreenJ111921.pdf" xr:uid="{67665FFE-B6D1-459E-9678-34DD6FD3D8D6}"/>
+    <hyperlink ref="D7" r:id="rId23" display="https://ags.hawaii.gov/campaign/files/2021/11/FundraiserGreenJ111621.pdf" xr:uid="{7EAC89E6-5DA8-4606-B3F9-F2E42206A006}"/>
+    <hyperlink ref="D8" r:id="rId24" display="https://ags.hawaii.gov/campaign/files/2021/11/FundraiserGreenJ111021.pdf" xr:uid="{AA331982-62E8-414C-854F-3754534C0B6B}"/>
+    <hyperlink ref="D9" r:id="rId25" display="https://ags.hawaii.gov/campaign/files/2021/11/FundraiserJoshGreen110421.pdf" xr:uid="{63A23694-C606-4478-B86B-1B03EC7D4BB8}"/>
+    <hyperlink ref="D10" r:id="rId26" display="https://ags.hawaii.gov/campaign/files/2021/09/FundraiserGreenJ090921.pdf" xr:uid="{1E856A10-4EC8-4E52-AC0F-5B73281F540B}"/>
+    <hyperlink ref="D11" r:id="rId27" display="https://ags.hawaii.gov/campaign/files/2021/06/JGreen_62421.pdf" xr:uid="{17EDB551-78C1-4F25-B6D2-DD1692B7F769}"/>
+    <hyperlink ref="D12" r:id="rId28" display="https://ags.hawaii.gov/campaign/files/2021/05/FundraiserGreenJ052021.pdf" xr:uid="{40992B4D-12D0-40F2-991B-EB592FBA13BA}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{D003E993-72E6-4781-BC0F-67A3031D3F9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA98A5E2DA24A342869CCA3970A51A98" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e430c017a436fe3795cf8d221beb1a03">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f5b1876a-7679-47e2-8334-448d3a2b2fc4" xmlns:ns4="73f5b12e-34f7-4ed9-9a3b-57075d2ff8d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e099e06c429b218dbeb4414b71331753" ns3:_="" ns4:_="">
     <xsd:import namespace="f5b1876a-7679-47e2-8334-448d3a2b2fc4"/>
@@ -1118,12 +1327,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1134,6 +1337,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F288EE-C1EA-4DEA-BE41-B97A5475C8C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="73f5b12e-34f7-4ed9-9a3b-57075d2ff8d7"/>
+    <ds:schemaRef ds:uri="f5b1876a-7679-47e2-8334-448d3a2b2fc4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B072928-C836-4267-BF0A-17B03C30F10F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1152,23 +1372,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20F288EE-C1EA-4DEA-BE41-B97A5475C8C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="73f5b12e-34f7-4ed9-9a3b-57075d2ff8d7"/>
-    <ds:schemaRef ds:uri="f5b1876a-7679-47e2-8334-448d3a2b2fc4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9800AB7-5C1E-4663-B65C-811603E45A6E}">
   <ds:schemaRefs>
